--- a/output/below_50/tRNA-Gly-GCC-2-3.xlsx
+++ b/output/below_50/tRNA-Gly-GCC-2-3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="85">
   <si>
     <t>chr6</t>
   </si>
@@ -267,258 +267,6 @@
   </si>
   <si>
     <t>72</t>
-  </si>
-  <si>
-    <t>27870761</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>27870741</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GCGAGGCATTGGTGGTTCAG</t>
-  </si>
-  <si>
-    <t>94% (75)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 35, Doench 2016: 84%, Moreno-Mateos: 94%</t>
-  </si>
-  <si>
-    <t>2.17356E+11</t>
-  </si>
-  <si>
-    <t>27870894</t>
-  </si>
-  <si>
-    <t>27870917</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>27870897</t>
-  </si>
-  <si>
-    <t>TTCCTGAAAAGAAGGGAAGA</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>12% (24)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 27, Doench 2016: 46%, Moreno-Mateos: 12%</t>
-  </si>
-  <si>
-    <t>3.39872E+11</t>
-  </si>
-  <si>
-    <t>27870950</t>
-  </si>
-  <si>
-    <t>27870973</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>27870970</t>
-  </si>
-  <si>
-    <t>TCTCCTGCAACACTGGAGGC</t>
-  </si>
-  <si>
-    <t>4% (14)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 46, Doench 2016: 46%, Moreno-Mateos: 4%</t>
-  </si>
-  <si>
-    <t>29768728826</t>
-  </si>
-  <si>
-    <t>27870953</t>
-  </si>
-  <si>
-    <t>27870976</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>27870956</t>
-  </si>
-  <si>
-    <t>GGGCCAGCCTCCAGTGTTGC</t>
-  </si>
-  <si>
-    <t>19% (38)</t>
-  </si>
-  <si>
-    <t>37% (39)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 19%, Moreno-Mateos: 37%</t>
-  </si>
-  <si>
-    <t>98373699269</t>
-  </si>
-  <si>
-    <t>27871014</t>
-  </si>
-  <si>
-    <t>27871037</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>27871034</t>
-  </si>
-  <si>
-    <t>GAGGTTGGACTGCTCTGGCT</t>
-  </si>
-  <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>92% (72)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 39, Doench 2016: 43%, Moreno-Mateos: 92%</t>
-  </si>
-  <si>
-    <t>1.76229E+11</t>
-  </si>
-  <si>
-    <t>27871095</t>
-  </si>
-  <si>
-    <t>27871118</t>
-  </si>
-  <si>
-    <t>27871098</t>
-  </si>
-  <si>
-    <t>ATAATATTAATCAAAAGAAT</t>
-  </si>
-  <si>
-    <t>3% (12)</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 25%, Moreno-Mateos: 3%</t>
-  </si>
-  <si>
-    <t>27871126</t>
-  </si>
-  <si>
-    <t>27871149</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>27871129</t>
-  </si>
-  <si>
-    <t>AAATAGTAAAAGGTTGGAAA</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 37, Doench 2016: 38%, Moreno-Mateos: 35%</t>
-  </si>
-  <si>
-    <t>43721877270</t>
-  </si>
-  <si>
-    <t>27871132</t>
-  </si>
-  <si>
-    <t>27871155</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>27871135</t>
-  </si>
-  <si>
-    <t>ATAAGTAAATAGTAAAAGGT</t>
-  </si>
-  <si>
-    <t>41% (41)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 29, Doench 2016: 59%, Moreno-Mateos: 41%</t>
-  </si>
-  <si>
-    <t>3.90376E+11</t>
-  </si>
-  <si>
-    <t>27871136</t>
-  </si>
-  <si>
-    <t>27871159</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>27871139</t>
-  </si>
-  <si>
-    <t>ACACATAAGTAAATAGTAAA</t>
-  </si>
-  <si>
-    <t>11% (32)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 34, Doench 2016: 11%, Moreno-Mateos: 37%</t>
-  </si>
-  <si>
-    <t>3.21627E+11</t>
   </si>
 </sst>
 </file>
@@ -563,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1164,58 +912,58 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="R11" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1223,58 +971,58 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="S12" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1282,58 +1030,58 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
         <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="S13" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1341,58 +1089,58 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="O14" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="R14" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="S14" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1400,58 +1148,58 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J15" t="s">
         <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="O15" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Q15" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="R15" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="S15" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1459,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1471,43 +1219,43 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J16" t="s">
         <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="S16" t="s">
         <v>3</v>
@@ -1518,58 +1266,58 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
         <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="R17" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="S17" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1577,58 +1325,58 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J18" t="s">
         <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="Q18" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="R18" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="S18" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1636,58 +1384,58 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J19" t="s">
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="R19" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="S19" t="s">
-        <v>168</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1695,22 +1443,22 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -1722,7 +1470,7 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="L20" t="s">
         <v>9</v>
@@ -1731,612 +1479,22 @@
         <v>10</v>
       </c>
       <c r="N20" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="O20" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="Q20" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="R20" t="s">
         <v>15</v>
       </c>
       <c r="S20" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>24</v>
-      </c>
-      <c r="R21" t="s">
-        <v>15</v>
-      </c>
-      <c r="S21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" t="s">
-        <v>15</v>
-      </c>
-      <c r="S22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" t="s">
-        <v>15</v>
-      </c>
-      <c r="S23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>50</v>
-      </c>
-      <c r="R24" t="s">
-        <v>15</v>
-      </c>
-      <c r="S24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" t="s">
-        <v>54</v>
-      </c>
-      <c r="O25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" t="s">
-        <v>60</v>
-      </c>
-      <c r="O26" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>63</v>
-      </c>
-      <c r="R26" t="s">
-        <v>15</v>
-      </c>
-      <c r="S26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" t="s">
-        <v>67</v>
-      </c>
-      <c r="O27" t="s">
-        <v>68</v>
-      </c>
-      <c r="P27" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>70</v>
-      </c>
-      <c r="R27" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" t="s">
-        <v>74</v>
-      </c>
-      <c r="O28" t="s">
-        <v>55</v>
-      </c>
-      <c r="P28" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>76</v>
-      </c>
-      <c r="R28" t="s">
-        <v>15</v>
-      </c>
-      <c r="S28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" t="s">
-        <v>81</v>
-      </c>
-      <c r="O29" t="s">
-        <v>82</v>
-      </c>
-      <c r="P29" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>84</v>
-      </c>
-      <c r="R29" t="s">
-        <v>15</v>
-      </c>
-      <c r="S29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" t="s">
-        <v>89</v>
-      </c>
-      <c r="L30" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" t="s">
-        <v>86</v>
-      </c>
-      <c r="N30" t="s">
-        <v>81</v>
-      </c>
-      <c r="O30" t="s">
-        <v>90</v>
-      </c>
-      <c r="P30" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>92</v>
-      </c>
-      <c r="R30" t="s">
-        <v>93</v>
-      </c>
-      <c r="S30" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
